--- a/Data/节奏与升级系统表格_加入敌人权重.xlsx
+++ b/Data/节奏与升级系统表格_加入敌人权重.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Godot\fox\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6470549-0775-45ED-BC7A-965B6AD9E448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CF0A5A-DBEE-4919-9B56-92812D00005C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -457,13 +457,13 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.75" customWidth="1"/>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="1" max="1" width="18.125" customWidth="1"/>
+    <col min="2" max="2" width="20.375" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="12.75" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>

--- a/Data/节奏与升级系统表格_加入敌人权重.xlsx
+++ b/Data/节奏与升级系统表格_加入敌人权重.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Godot\fox\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CF0A5A-DBEE-4919-9B56-92812D00005C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -85,12 +79,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -98,15 +92,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -156,21 +143,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -208,7 +187,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -242,7 +221,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -277,10 +255,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -453,27 +430,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="18.125" customWidth="1"/>
-    <col min="2" max="2" width="20.375" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="12.75" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="16.375" customWidth="1"/>
-    <col min="7" max="7" width="13.125" customWidth="1"/>
-    <col min="8" max="8" width="18.5" customWidth="1"/>
-    <col min="15" max="15" width="61.125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -520,7 +484,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>0</v>
       </c>
@@ -546,7 +510,7 @@
         <v>2</v>
       </c>
       <c r="I2">
-        <v>0.33500000000000002</v>
+        <v>0.335</v>
       </c>
       <c r="J2">
         <v>10</v>
@@ -567,7 +531,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>10</v>
       </c>
@@ -587,16 +551,16 @@
         <v>0.48</v>
       </c>
       <c r="G3">
-        <v>0.69</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H3">
         <v>2.08</v>
       </c>
       <c r="I3">
-        <v>0.33200000000000002</v>
+        <v>0.332</v>
       </c>
       <c r="J3">
-        <v>9.6999999999999993</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -614,7 +578,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>20</v>
       </c>
@@ -640,7 +604,7 @@
         <v>2.13</v>
       </c>
       <c r="I4">
-        <v>0.33300000000000002</v>
+        <v>0.333</v>
       </c>
       <c r="J4">
         <v>9.4</v>
@@ -661,7 +625,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>30</v>
       </c>
@@ -681,13 +645,13 @@
         <v>0.46</v>
       </c>
       <c r="G5">
-        <v>1.1100000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="H5">
         <v>2.17</v>
       </c>
       <c r="I5">
-        <v>0.51200000000000001</v>
+        <v>0.512</v>
       </c>
       <c r="J5">
         <v>9.1</v>
@@ -708,7 +672,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>40</v>
       </c>
@@ -755,7 +719,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>50</v>
       </c>
@@ -784,7 +748,7 @@
         <v>1.008</v>
       </c>
       <c r="J7">
-        <v>8.1999999999999993</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -802,7 +766,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>60</v>
       </c>
@@ -828,7 +792,7 @@
         <v>4.88</v>
       </c>
       <c r="I8">
-        <v>0.68200000000000005</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="J8">
         <v>7.9</v>
@@ -849,12 +813,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>70</v>
       </c>
       <c r="B9">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -875,7 +839,7 @@
         <v>5</v>
       </c>
       <c r="I9">
-        <v>0.69599999999999995</v>
+        <v>0.696</v>
       </c>
       <c r="J9">
         <v>7.6</v>
@@ -896,12 +860,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>80</v>
       </c>
       <c r="B10">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -943,7 +907,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>90</v>
       </c>
@@ -990,7 +954,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>100</v>
       </c>
@@ -1037,7 +1001,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>110</v>
       </c>
@@ -1084,7 +1048,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15">
       <c r="A14">
         <v>120</v>
       </c>
@@ -1107,10 +1071,10 @@
         <v>10</v>
       </c>
       <c r="H14">
-        <v>9.3800000000000008</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="I14">
-        <v>1.0660000000000001</v>
+        <v>1.066</v>
       </c>
       <c r="J14">
         <v>6.1</v>
@@ -1131,7 +1095,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15">
       <c r="A15">
         <v>130</v>
       </c>
@@ -1157,7 +1121,7 @@
         <v>10</v>
       </c>
       <c r="I15">
-        <v>1.0589999999999999</v>
+        <v>1.059</v>
       </c>
       <c r="J15">
         <v>5.8</v>
@@ -1178,7 +1142,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15">
       <c r="A16">
         <v>140</v>
       </c>
@@ -1195,7 +1159,7 @@
         <v>3</v>
       </c>
       <c r="F16">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="G16">
         <v>15</v>
@@ -1204,7 +1168,7 @@
         <v>10.34</v>
       </c>
       <c r="I16">
-        <v>1.4510000000000001</v>
+        <v>1.451</v>
       </c>
       <c r="J16">
         <v>5.5</v>
@@ -1225,7 +1189,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15">
       <c r="A17">
         <v>150</v>
       </c>
@@ -1242,16 +1206,16 @@
         <v>3</v>
       </c>
       <c r="F17">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="G17">
-        <v>18.670000000000002</v>
+        <v>18.67</v>
       </c>
       <c r="H17">
         <v>10.71</v>
       </c>
       <c r="I17">
-        <v>1.7430000000000001</v>
+        <v>1.743</v>
       </c>
       <c r="J17">
         <v>5.5</v>
@@ -1273,7 +1237,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/节奏与升级系统表格_加入敌人权重.xlsx
+++ b/Data/节奏与升级系统表格_加入敌人权重.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Godot\fox\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB91476-6988-413E-AB5E-CCCEE5DFFCF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>时间（秒）</t>
   </si>
@@ -61,30 +80,46 @@
     <t>敌人类型权重</t>
   </si>
   <si>
+    <t>{'slime': 0.8, 'giant': 0.2}</t>
+  </si>
+  <si>
+    <t>{'slime': 0.7, 'giant': 0.2, 'fly': 0.1}</t>
+  </si>
+  <si>
+    <t>{'slime': 0.6, 'giant': 0.3, 'fly': 0.1}</t>
+  </si>
+  <si>
+    <t>{'slime': 0.5, 'giant': 0.3, 'fly': 0.2}</t>
+  </si>
+  <si>
+    <t>{'slime': 0.7, 'giant': 0.2, 'fly': 0.1}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'slime': 0.8, 'giant': 0.2}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>{'slime': 1.0}</t>
-  </si>
-  <si>
-    <t>{'slime': 0.8, 'giant': 0.2}</t>
-  </si>
-  <si>
-    <t>{'slime': 0.7, 'giant': 0.2, 'fly': 0.1}</t>
-  </si>
-  <si>
-    <t>{'slime': 0.6, 'giant': 0.3, 'fly': 0.1}</t>
-  </si>
-  <si>
-    <t>{'slime': 0.5, 'giant': 0.3, 'fly': 0.2}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -92,17 +127,30 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -132,24 +180,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -187,7 +250,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -221,6 +284,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -255,9 +319,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -430,14 +495,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="3" max="3" width="10.25" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="7" width="13.125" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="15.625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="13.5" style="4" customWidth="1"/>
+    <col min="12" max="12" width="10" style="4" customWidth="1"/>
+    <col min="13" max="13" width="18.375" customWidth="1"/>
+    <col min="18" max="18" width="62" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -457,34 +538,43 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>0</v>
       </c>
@@ -492,7 +582,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -504,42 +594,56 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.67</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="I2">
-        <v>0.335</v>
-      </c>
-      <c r="J2">
-        <v>10</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
+        <v>0.1</v>
+      </c>
+      <c r="H2" s="4">
+        <f>C2*D2/B2</f>
+        <v>1</v>
+      </c>
+      <c r="I2" s="4">
+        <f>E2/F2</f>
+        <v>2</v>
+      </c>
+      <c r="J2" s="4">
+        <f>E2/G2</f>
+        <v>10</v>
+      </c>
+      <c r="K2" s="4">
+        <f>I2/H2</f>
+        <v>2</v>
+      </c>
+      <c r="L2" s="4">
+        <f>J2/H2</f>
+        <v>10</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N2">
-        <v>20</v>
-      </c>
-      <c r="O2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>20</v>
+      </c>
+      <c r="R2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>10</v>
       </c>
       <c r="B3">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -548,45 +652,59 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="H3">
-        <v>2.08</v>
-      </c>
-      <c r="I3">
-        <v>0.332</v>
-      </c>
-      <c r="J3">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
+        <v>0.1</v>
+      </c>
+      <c r="H3" s="4">
+        <f t="shared" ref="H3:H17" si="0">C3*D3/B3</f>
+        <v>1.0714285714285714</v>
+      </c>
+      <c r="I3" s="4">
+        <f t="shared" ref="I3:I17" si="1">E3/F3</f>
+        <v>2</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J17" si="2">E3/G3</f>
+        <v>10</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K17" si="3">I3/H3</f>
+        <v>1.8666666666666667</v>
+      </c>
+      <c r="L3" s="4">
+        <f t="shared" ref="L3:L17" si="4">J3/H3</f>
+        <v>9.3333333333333339</v>
       </c>
       <c r="M3">
-        <v>2</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="N3">
-        <v>20</v>
-      </c>
-      <c r="O3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <v>20</v>
+      </c>
+      <c r="R3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>20</v>
       </c>
       <c r="B4">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -595,648 +713,848 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.71</v>
-      </c>
-      <c r="H4">
-        <v>2.13</v>
-      </c>
-      <c r="I4">
-        <v>0.333</v>
-      </c>
-      <c r="J4">
+        <v>0.1</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1538461538461537</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="3"/>
+        <v>1.7333333333333334</v>
+      </c>
+      <c r="L4" s="4">
+        <f t="shared" si="4"/>
+        <v>8.6666666666666679</v>
+      </c>
+      <c r="M4">
         <v>9.4</v>
       </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
         <v>3</v>
       </c>
-      <c r="N4">
-        <v>20</v>
-      </c>
-      <c r="O4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="Q4">
+        <v>20</v>
+      </c>
+      <c r="R4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>30</v>
       </c>
       <c r="B5">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>1.11</v>
-      </c>
-      <c r="H5">
-        <v>2.17</v>
-      </c>
-      <c r="I5">
-        <v>0.512</v>
-      </c>
-      <c r="J5">
+        <v>0.1</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" si="0"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="K5" s="4">
+        <f>I5/H5</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="L5" s="4">
+        <f t="shared" si="4"/>
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="M5">
         <v>9.1</v>
       </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
         <v>4</v>
       </c>
-      <c r="N5">
-        <v>20</v>
-      </c>
-      <c r="O5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="Q5">
+        <v>20</v>
+      </c>
+      <c r="R5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>40</v>
       </c>
       <c r="B6">
-        <v>2.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>2.31</v>
-      </c>
-      <c r="H6">
-        <v>2.27</v>
-      </c>
-      <c r="I6">
-        <v>1.018</v>
-      </c>
-      <c r="J6">
+        <v>0.1</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="0"/>
+        <v>2.545454545454545</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="3"/>
+        <v>0.78571428571428581</v>
+      </c>
+      <c r="L6" s="4">
+        <f t="shared" si="4"/>
+        <v>3.9285714285714293</v>
+      </c>
+      <c r="M6">
         <v>8.5</v>
       </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
         <v>5</v>
       </c>
-      <c r="N6">
-        <v>20</v>
-      </c>
-      <c r="O6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="Q6">
+        <v>20</v>
+      </c>
+      <c r="R6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>50</v>
       </c>
       <c r="B7">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.42</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>2.4</v>
-      </c>
-      <c r="H7">
-        <v>2.38</v>
-      </c>
-      <c r="I7">
-        <v>1.008</v>
-      </c>
-      <c r="J7">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
+        <v>0.1</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="3"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L7" s="4">
+        <f t="shared" si="4"/>
+        <v>3.5714285714285716</v>
       </c>
       <c r="M7">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
         <v>7</v>
       </c>
-      <c r="N7">
-        <v>20</v>
-      </c>
-      <c r="O7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8">
+      <c r="Q7">
+        <v>20</v>
+      </c>
+      <c r="R7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="5">
         <v>60</v>
       </c>
-      <c r="B8">
-        <v>2.4</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="C8" s="5">
         <v>4</v>
       </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0.41</v>
-      </c>
-      <c r="G8">
-        <v>3.33</v>
-      </c>
-      <c r="H8">
-        <v>4.88</v>
-      </c>
-      <c r="I8">
-        <v>0.6820000000000001</v>
-      </c>
-      <c r="J8">
+      <c r="D8" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" si="0"/>
+        <v>3.1111111111111107</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J8" s="6">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="K8" s="6">
+        <f t="shared" si="3"/>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="L8" s="6">
+        <f t="shared" si="4"/>
+        <v>3.2142857142857149</v>
+      </c>
+      <c r="M8" s="5">
         <v>7.9</v>
       </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
+      <c r="N8" s="5">
+        <v>2</v>
+      </c>
+      <c r="O8" s="5">
+        <v>1</v>
+      </c>
+      <c r="P8" s="5">
         <v>9</v>
       </c>
-      <c r="N8">
-        <v>20</v>
-      </c>
-      <c r="O8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="Q8" s="5">
+        <v>20</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>70</v>
       </c>
       <c r="B9">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G9">
-        <v>3.48</v>
-      </c>
-      <c r="H9">
-        <v>5</v>
-      </c>
-      <c r="I9">
-        <v>0.696</v>
-      </c>
-      <c r="J9">
+        <v>0.1</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="0"/>
+        <v>4.375</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="3"/>
+        <v>0.45714285714285713</v>
+      </c>
+      <c r="L9" s="4">
+        <f t="shared" si="4"/>
+        <v>2.2857142857142856</v>
+      </c>
+      <c r="M9">
         <v>7.6</v>
       </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
         <v>11</v>
       </c>
-      <c r="N9">
-        <v>20</v>
-      </c>
-      <c r="O9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="Q9">
+        <v>20</v>
+      </c>
+      <c r="R9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>80</v>
       </c>
       <c r="B10">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.38</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
-        <v>5.45</v>
-      </c>
-      <c r="H10">
-        <v>5.26</v>
-      </c>
-      <c r="I10">
-        <v>1.036</v>
-      </c>
-      <c r="J10">
+        <v>0.1</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
+      <c r="L10" s="4">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="M10">
         <v>7.3</v>
       </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
         <v>13</v>
       </c>
-      <c r="N10">
-        <v>20</v>
-      </c>
-      <c r="O10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="Q10">
+        <v>20</v>
+      </c>
+      <c r="R10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>90</v>
       </c>
       <c r="B11">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.36</v>
+        <v>0.5</v>
       </c>
       <c r="G11">
-        <v>7.14</v>
-      </c>
-      <c r="H11">
-        <v>5.56</v>
-      </c>
-      <c r="I11">
-        <v>1.284</v>
-      </c>
-      <c r="J11">
+        <v>0.1</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="0"/>
+        <v>8.0000000000000018</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="3"/>
+        <v>0.24999999999999994</v>
+      </c>
+      <c r="L11" s="4">
+        <f t="shared" si="4"/>
+        <v>1.2499999999999998</v>
+      </c>
+      <c r="M11">
         <v>7</v>
       </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>2</v>
-      </c>
-      <c r="M11">
+      <c r="N11">
+        <v>2</v>
+      </c>
+      <c r="O11">
+        <v>2</v>
+      </c>
+      <c r="P11">
         <v>0</v>
       </c>
-      <c r="N11">
-        <v>20</v>
-      </c>
-      <c r="O11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="Q11">
+        <v>20</v>
+      </c>
+      <c r="R11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>100</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.34</v>
+        <v>0.5</v>
       </c>
       <c r="G12">
-        <v>7.5</v>
-      </c>
-      <c r="H12">
-        <v>5.88</v>
-      </c>
-      <c r="I12">
-        <v>1.276</v>
-      </c>
-      <c r="J12">
+        <v>0.1</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="0"/>
+        <v>9.6000000000000103</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="3"/>
+        <v>0.20833333333333312</v>
+      </c>
+      <c r="L12" s="4">
+        <f t="shared" si="4"/>
+        <v>1.0416666666666656</v>
+      </c>
+      <c r="M12">
         <v>6.7</v>
       </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>2</v>
-      </c>
-      <c r="M12">
-        <v>2</v>
-      </c>
       <c r="N12">
-        <v>20</v>
-      </c>
-      <c r="O12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>2</v>
+      </c>
+      <c r="O12">
+        <v>2</v>
+      </c>
+      <c r="P12">
+        <v>2</v>
+      </c>
+      <c r="Q12">
+        <v>20</v>
+      </c>
+      <c r="R12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>110</v>
       </c>
       <c r="B13">
-        <v>1.9</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>1.6</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+      <c r="G13">
+        <v>0.1</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="0"/>
+        <v>9.6000000000000103</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="3"/>
+        <v>0.20833333333333312</v>
+      </c>
+      <c r="L13" s="4">
+        <f t="shared" si="4"/>
+        <v>1.0416666666666656</v>
+      </c>
+      <c r="M13">
+        <v>6.4</v>
+      </c>
+      <c r="N13">
+        <v>3</v>
+      </c>
+      <c r="O13">
+        <v>2</v>
+      </c>
+      <c r="P13">
         <v>5</v>
       </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>0.32</v>
-      </c>
-      <c r="G13">
-        <v>7.89</v>
-      </c>
-      <c r="H13">
-        <v>6.25</v>
-      </c>
-      <c r="I13">
-        <v>1.262</v>
-      </c>
-      <c r="J13">
-        <v>6.4</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>2</v>
-      </c>
-      <c r="M13">
-        <v>5</v>
-      </c>
-      <c r="N13">
-        <v>20</v>
-      </c>
-      <c r="O13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="Q13">
+        <v>20</v>
+      </c>
+      <c r="R13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>120</v>
       </c>
       <c r="B14">
-        <v>1.8</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="C14">
         <v>6</v>
       </c>
       <c r="D14">
+        <v>1.6</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.5</v>
+      </c>
+      <c r="G14">
+        <v>0.1</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="0"/>
+        <v>9.6000000000000103</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="3"/>
+        <v>0.20833333333333312</v>
+      </c>
+      <c r="L14" s="4">
+        <f t="shared" si="4"/>
+        <v>1.0416666666666656</v>
+      </c>
+      <c r="M14">
+        <v>6.1</v>
+      </c>
+      <c r="N14">
         <v>3</v>
       </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>0.32</v>
-      </c>
-      <c r="G14">
-        <v>10</v>
-      </c>
-      <c r="H14">
-        <v>9.380000000000001</v>
-      </c>
-      <c r="I14">
-        <v>1.066</v>
-      </c>
-      <c r="J14">
-        <v>6.1</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>2</v>
-      </c>
-      <c r="M14">
+      <c r="O14">
+        <v>2</v>
+      </c>
+      <c r="P14">
         <v>8</v>
       </c>
-      <c r="N14">
-        <v>20</v>
-      </c>
-      <c r="O14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="Q14">
+        <v>20</v>
+      </c>
+      <c r="R14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>130</v>
       </c>
       <c r="B15">
-        <v>1.7</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="C15">
         <v>6</v>
       </c>
       <c r="D15">
+        <v>1.6</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+      <c r="G15">
+        <v>0.1</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="0"/>
+        <v>9.6000000000000103</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="3"/>
+        <v>0.20833333333333312</v>
+      </c>
+      <c r="L15" s="4">
+        <f t="shared" si="4"/>
+        <v>1.0416666666666656</v>
+      </c>
+      <c r="M15">
+        <v>5.8</v>
+      </c>
+      <c r="N15">
         <v>3</v>
       </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>0.3</v>
-      </c>
-      <c r="G15">
-        <v>10.59</v>
-      </c>
-      <c r="H15">
-        <v>10</v>
-      </c>
-      <c r="I15">
-        <v>1.059</v>
-      </c>
-      <c r="J15">
-        <v>5.8</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>2</v>
-      </c>
-      <c r="M15">
+      <c r="O15">
+        <v>2</v>
+      </c>
+      <c r="P15">
         <v>11</v>
       </c>
-      <c r="N15">
-        <v>20</v>
-      </c>
-      <c r="O15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="Q15">
+        <v>20</v>
+      </c>
+      <c r="R15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>140</v>
       </c>
       <c r="B16">
-        <v>1.6</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="C16">
         <v>6</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>0.1</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="0"/>
+        <v>9.6000000000000103</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="3"/>
+        <v>0.20833333333333312</v>
+      </c>
+      <c r="L16" s="4">
+        <f t="shared" si="4"/>
+        <v>1.0416666666666656</v>
+      </c>
+      <c r="M16">
+        <v>5.5</v>
+      </c>
+      <c r="N16">
         <v>3</v>
       </c>
-      <c r="F16">
-        <v>0.29</v>
-      </c>
-      <c r="G16">
-        <v>15</v>
-      </c>
-      <c r="H16">
-        <v>10.34</v>
-      </c>
-      <c r="I16">
-        <v>1.451</v>
-      </c>
-      <c r="J16">
-        <v>5.5</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>2</v>
-      </c>
-      <c r="M16">
+      <c r="O16">
+        <v>2</v>
+      </c>
+      <c r="P16">
         <v>14</v>
       </c>
-      <c r="N16">
-        <v>20</v>
-      </c>
-      <c r="O16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="Q16">
+        <v>20</v>
+      </c>
+      <c r="R16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>150</v>
       </c>
       <c r="B17">
-        <v>1.5</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.5</v>
+      </c>
+      <c r="G17">
+        <v>0.1</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="0"/>
+        <v>9.6000000000000103</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="3"/>
+        <v>0.20833333333333312</v>
+      </c>
+      <c r="L17" s="4">
+        <f t="shared" si="4"/>
+        <v>1.0416666666666656</v>
+      </c>
+      <c r="M17">
+        <v>5.5</v>
+      </c>
+      <c r="N17">
         <v>3</v>
       </c>
-      <c r="F17">
-        <v>0.28</v>
-      </c>
-      <c r="G17">
-        <v>18.67</v>
-      </c>
-      <c r="H17">
-        <v>10.71</v>
-      </c>
-      <c r="I17">
-        <v>1.743</v>
-      </c>
-      <c r="J17">
-        <v>5.5</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>2</v>
-      </c>
-      <c r="M17">
+      <c r="O17">
+        <v>2</v>
+      </c>
+      <c r="P17">
         <v>17</v>
       </c>
-      <c r="N17">
-        <v>20</v>
-      </c>
-      <c r="O17" t="s">
-        <v>19</v>
-      </c>
+      <c r="Q17">
+        <v>20</v>
+      </c>
+      <c r="R17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="E18" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>